--- a/zoo data(1).xlsx
+++ b/zoo data(1).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35987A-047F-4FFD-8ECE-A0D40A0877E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="230">
   <si>
     <t>legal</t>
   </si>
@@ -163,13 +162,1432 @@
   </si>
   <si>
     <t>Serial number</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
+    <r>
+      <t>Area (in km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Notability</t>
+  </si>
+  <si>
+    <t>Anamudi Shola National Park</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Anshi National Park</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>The great Indian Hornbill, Tiger, Leopard, Black panther, Bear, Elephant, Deer, etc</t>
+  </si>
+  <si>
+    <t>Balphakram National Park</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <r>
+      <t>Wild water buffalo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Red panda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, elephant and eight cat species, including the tiger and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>marbled cat</t>
+    </r>
+  </si>
+  <si>
+    <t>Bandhavgarh National Park</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>1336 species of endemic plants</t>
+  </si>
+  <si>
+    <t>Bandipur National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>Chital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bengal tiger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gray langurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian giant squirrel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gaur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>leopard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sambar deer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>indian elephants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>honey buzzard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>red-headed vulture</t>
+    </r>
+  </si>
+  <si>
+    <t>Bannerghatta National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>Tiger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sloth bear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peacock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elephant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sambar deer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mouse deer</t>
+    </r>
+  </si>
+  <si>
+    <t>Betla National Park</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Bhitarkanika National Park</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <r>
+      <t>Mangroves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saltwater crocodile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, white crocodile, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, black ibis, wild pigs, rhesus monkeys, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>olive ridley sea turtle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chital</t>
+    </r>
+  </si>
+  <si>
+    <t>Bison (Rajbari) National Park</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Blackbuck National Park, Velavadar</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Hunting cheetahs, Blackbuck Lodge, the endangered Indian grey wolf, the nocturnal striped hyena, Indian fox, golden jackal, jungle cat and many small mammals like hare, gerbil, field mice, mongoose and hedgehog.</t>
+  </si>
+  <si>
+    <t>Buxa Tiger Reserve</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Campbell Bay National Park</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Chandoli National Park</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Clouded Leopard National Park</t>
+  </si>
+  <si>
+    <t>Dachigam National Park</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <r>
+      <t>Only area where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kashmir stag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is found</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Desert National Park</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Greatest attraction of the park is a bird called the great Indian bustard, an endangered species found only in India</t>
+  </si>
+  <si>
+    <t>Dibru-Saikhowa National Park</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Known for feral horse</t>
+  </si>
+  <si>
+    <t>Dudhwa National Park</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <r>
+      <t>Tiger </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Panthera tigris,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sambhar </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Axis axis,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hog Deer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> porcinus</t>
+    </r>
+  </si>
+  <si>
+    <t>Eravikulam National Park</t>
+  </si>
+  <si>
+    <t>Galathea National Park</t>
+  </si>
+  <si>
+    <t>Gangotri National Park</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Gir Forest National Park</t>
+  </si>
+  <si>
+    <t>Asiatic lion</t>
+  </si>
+  <si>
+    <t>Gorumara National Park</t>
+  </si>
+  <si>
+    <t>Govind Pashu Vihar Wildlife Sanctuary</t>
+  </si>
+  <si>
+    <t>Great Himalayan National Park</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh,</t>
+  </si>
+  <si>
+    <r>
+      <t>UNESCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Heritage Site</t>
+    </r>
+  </si>
+  <si>
+    <t>Gugamal National Park</t>
+  </si>
+  <si>
+    <t>Guindy National Park</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Gulf of Mannar Marine National Park</t>
+  </si>
+  <si>
+    <t>Guru Ghasidas (Sanjay) National Park</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Hemis National Park</t>
+  </si>
+  <si>
+    <t>Inderkilla National Park</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Indra Gandhi Wildlife Sanctuary and National Park</t>
+  </si>
+  <si>
+    <t>Indravati National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>Wild Asian buffalo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tiger reserve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hill mynas</t>
+    </r>
+  </si>
+  <si>
+    <t>Jaldapara National Park</t>
+  </si>
+  <si>
+    <t>Indian rhinoceros</t>
+  </si>
+  <si>
+    <t>Jim Corbett National Park</t>
+  </si>
+  <si>
+    <t>First national park in India (established in 1936 as Hailey National Park)</t>
+  </si>
+  <si>
+    <t>Kalesar National Park</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Kanha National Park</t>
+  </si>
+  <si>
+    <t>Kanger Ghati National Park</t>
+  </si>
+  <si>
+    <t>Kasu Brahmananda Reddy National Park</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Kaziranga National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>Highest known tiger density in the World </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian rhinoceros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNESCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Heritage Site</t>
+    </r>
+  </si>
+  <si>
+    <t>Keibul Lamjao National Park</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Only floating park in the world</t>
+  </si>
+  <si>
+    <t>Keoladeo National Park</t>
+  </si>
+  <si>
+    <t>Khangchendzonga National Park</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Khirganga National Park</t>
+  </si>
+  <si>
+    <t>Kishtwar National Park</t>
+  </si>
+  <si>
+    <t>Kudremukh National Park</t>
+  </si>
+  <si>
+    <t>Madhav National Park</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi Marine National Park</t>
+  </si>
+  <si>
+    <t>Mahavir Harina Vanasthali National Park</t>
+  </si>
+  <si>
+    <t>Manas National Park</t>
+  </si>
+  <si>
+    <t>Mandla Plant Fossils National Park</t>
+  </si>
+  <si>
+    <t>Marine National Park, Gulf of Kutch</t>
+  </si>
+  <si>
+    <t>Mathikettan Shola National Park</t>
+  </si>
+  <si>
+    <t>Middle Button Island National Park</t>
+  </si>
+  <si>
+    <t>Mollem National Park</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Mouling National Park</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Mount Abu Wildlife Sanctuary</t>
+  </si>
+  <si>
+    <t>Mount Harriet National Park</t>
+  </si>
+  <si>
+    <t>Important bird area as attributed by BirdLife International, new species frog named Rana CharlesDarwini</t>
+  </si>
+  <si>
+    <t>Mrugavani National Park</t>
+  </si>
+  <si>
+    <t>Mudumalai National Park</t>
+  </si>
+  <si>
+    <t>Mukundra Hills National Park</t>
+  </si>
+  <si>
+    <t>Mukurthi National Park</t>
+  </si>
+  <si>
+    <t>Nilgiri tahr</t>
+  </si>
+  <si>
+    <t>Murlen National Park</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagarhole National Park</t>
+  </si>
+  <si>
+    <t>Namdapha National Park</t>
+  </si>
+  <si>
+    <t>Nameri National Park</t>
+  </si>
+  <si>
+    <t>Nanda Devi National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>UNESCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Heritage Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, UNESCO World Biosphere Reserve</t>
+    </r>
+  </si>
+  <si>
+    <t>Navegaon National Park</t>
+  </si>
+  <si>
+    <t>Neora Valley National Park</t>
+  </si>
+  <si>
+    <t>Nokrek National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>UNESCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Biosphere Reserve</t>
+    </r>
+  </si>
+  <si>
+    <t>North Button Island National Park</t>
+  </si>
+  <si>
+    <t>Ntangki National Park</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Orang National Park</t>
+  </si>
+  <si>
+    <t>Pambadum Shola National Park</t>
+  </si>
+  <si>
+    <t>Panna National Park</t>
+  </si>
+  <si>
+    <t>Papikonda National Park</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <r>
+      <t>Pench National Park</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>Periyar National Park</t>
+  </si>
+  <si>
+    <t>Phawngpui Blue Mountain National Park</t>
+  </si>
+  <si>
+    <t>Pin Valley National Park</t>
+  </si>
+  <si>
+    <t>Rajaji National Park</t>
+  </si>
+  <si>
+    <t>Mainly known for Elephants, Tigers, Leopards and several species of birds, reptiles and Mammals.</t>
+  </si>
+  <si>
+    <t>Rani Jhansi Marine National Park</t>
+  </si>
+  <si>
+    <t>Ranthambore National Park</t>
+  </si>
+  <si>
+    <t>Saddle Peak National Park</t>
+  </si>
+  <si>
+    <t>Salim Ali National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>Sanjay National Park</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+  </si>
+  <si>
+    <t>Sanjay Gandhi National Park</t>
+  </si>
+  <si>
+    <r>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asiatic Lion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Leopard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rhesus Macaque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bonnet Macaque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spotted Deer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hanuman Langur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Flying Fox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Hare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Barking Deer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Porcupine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Palm Civet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mouse Deer</t>
+    </r>
+  </si>
+  <si>
+    <t>Sariska Tiger Reserve</t>
+  </si>
+  <si>
+    <t>Satpura National Park</t>
+  </si>
+  <si>
+    <t>Silent Valley National Park</t>
+  </si>
+  <si>
+    <t>Absence of noisy cicadas, hence the name 'Silent Valley'</t>
+  </si>
+  <si>
+    <t>Simbalbara National Park</t>
+  </si>
+  <si>
+    <t>Sirohi National Park</t>
+  </si>
+  <si>
+    <t>Simlipal National Park</t>
+  </si>
+  <si>
+    <t>Tiger, leopard, Asian elephant, sambar, barking deer, gaur, jungle cat, wild boar</t>
+  </si>
+  <si>
+    <t>Singalila National Park</t>
+  </si>
+  <si>
+    <t>South Button Island National Park</t>
+  </si>
+  <si>
+    <t>Dugong, dolphin, water monitor lizard, blue whale</t>
+  </si>
+  <si>
+    <t>Sri Venkateswara National Park</t>
+  </si>
+  <si>
+    <t>Sultanpur National Park</t>
+  </si>
+  <si>
+    <t>Sundarbans National Park</t>
+  </si>
+  <si>
+    <t>Tadoba National Park</t>
+  </si>
+  <si>
+    <t>Tigers</t>
+  </si>
+  <si>
+    <t>Valley of Flowers National Park</t>
+  </si>
+  <si>
+    <t>UNESCO World Heritage Site</t>
+  </si>
+  <si>
+    <t>Valmiki National Park</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Vansda National Park</t>
+  </si>
+  <si>
+    <t>Van Vihar National Park</t>
+  </si>
+  <si>
+    <t>Data of few National Parks</t>
+  </si>
+  <si>
+    <t>Kanha National Park is a paradise for wildlife lovers. With a core zone of 363 square miles, it’s the largest national park in Central India. It’s also considered one of the most well-managed. The result is a beautiful park that’s teeming with wildlife. With approximately 105 Bengal tigers, it’s a great place to spot the big cats in the wild. But there’s so much else to see there, including leopards, sloth bears, sambar and barasingha deer. Kanha’s breeding program played a very important role in saving the barasingha from extinction.</t>
+  </si>
+  <si>
+    <t>Bandhavgarh is very picturesque, and popular with photographers and wildlife enthusiasts. It’s always on the lists of the top national parks in India. The ruins of an ancient fort makes for a great backdrop to this park, with a core area of 40 square miles and a buffer area of approximately 154 square miles. It’s one of the best places to spot a tiger in India. Located among the Vindya Hills in Madhya Pradesh, Bandhavgarh boasts one of the highest densities of Bengal tigers in the world. But the magnificent cat is not the only attraction here. There are also 36 other mammals, including leopards, chital, dhole and nilgai (“blue bulls”), more than 150 species of birds, and around 80 species of butterflies.</t>
+  </si>
+  <si>
+    <t>Ranthambhore National Park</t>
+  </si>
+  <si>
+    <t>Gir National Park</t>
+  </si>
+  <si>
+    <t>Sunderbans National Park</t>
+  </si>
+  <si>
+    <t>Nanda Devi Biosphere &amp; Valley of Flowers National Parks</t>
+  </si>
+  <si>
+    <t>This is the oldest national park of India, and also one of the most popular. It has many claims to fame, including being the site of the Project Tiger launch in 1973. Located in the foothills of the Himalayas in the northern state of Uttarakhand, Corbett is home to more than 200 Bengal tigers – the highest number of any tiger reserve in India. Corbett is also a great place for birding, with approximately 650 species of resident and migratory birds. It’s one of the only Indian national parks that allows overnight stays in the core zone.</t>
+  </si>
+  <si>
+    <t>Way up among the soaring peaks of the Himalayas, the legendary mystique of Nanda Devi and the Valley of Flowers beckons nature lovers, trekkers, and Hindu pilgrims alike. An area of exceptional beauty in the high-altitude West Himalayan landscape, these parks also feature outstanding biodiversity and are jointly listed as a UNESCO Natural Heritage Site. Nanda Devi, India’s second highest peak, is venerated as a goddess by Hindus, dominates the national park, and has helped preserve and protect the region. The Valley of Flowers is on many travel wish lists due to its remote location, famed beauty, and the limited time frame in which you can see the valley erupt in a carpet of blossoms. Both parks contain significant populations of threatened species, including the snow leopard and Himalayan musk deer. </t>
+  </si>
+  <si>
+    <t>There is no place else on earth like the Sunderbans. Formed by the Ganges River and Brahmaputra River deltas in the Bay of Bengal, the Sunderbans is the world’s largest mangrove forest and one of the most biologically productive of all ecosystems. Encompassing 513 square miles, Sunderbans National Park is situated within a larger UNESCO Biosphere Reserve and the Sunderbans Tiger Reserve. Many rare and endangered wildlife species call this region home, including the estuarine crocodile, Gangetic dolphin, Olive Ridley turtle, king cobra and Bengal tiger. Approximately 100 Bengal tigers live in the watery world of the Sunderbans, having adapted to an almost amphibious life. They can swim long distances and feed on fish, crab, and water Monitor Lizards. It’s a unique landscape that attracts wildlife lovers who are mesmerized by the mangroves, waterways, birds, and rich biodiversity.</t>
+  </si>
+  <si>
+    <t>Did you know that India is the only country on earth with endemic lions, tigers and bears? (Oh my!) Located in the western state of Gujarat, Gir National Park is the only remaining natural habitat of the Asiatic lion. In fact, Gir is the only place in the world where you can see lions roaming wild outside of Africa. Hunting reduced the Asiatic lion population in the region to 20 in 1913, and completely wiped them out in other parts of Asia. However, through the intervention of the Nawabs of Junagarh and the Forest Department, there are now 523 lions in Gir National Park. The park is also home to leopards, sambar deer and the chowsingha – the world’s only four-horned antelope.</t>
+  </si>
+  <si>
+    <t>Like many of the national parks of India, Periyar is also a tiger reserve and wildlife sanctuary. Located in the mountainous Western Ghats of Kerala, Periyar is rich in biodiversity and scenic beauty. It’s one of the most popular parks in South India. The park is home to a significant wild elephant population, as well as rare lion-tailed macaques, sambar deer, leopards, and about 40 Bengal tigers. The core zone is 135 square miles and forms the watershed of two major rivers. Plus there’s a large, picturesque lake. Periyar is unique in that it offers boating safaris, as well as walking and jeep safaris. A repository of rare, endemic, and endangered flora and fauna, Periyar is known for its thick, tropical evergreen forests.  </t>
+  </si>
+  <si>
+    <t>With the picturesque remains of a crumbling fort, a living temple, and three mirror-like lakes, Ranthambhore is one of the most photographed national parks in India. The former hunting grounds of the Maharaja of Jaipur, Ranthambhore National Park is part of a much larger 502 square mile tiger reserve. It’s home to approximately 45 Bengal tigers, and is within easy travel distance of Delhi. This makes it a very popular place indeed. Still, it’s a good place to spot tigers as well as leopards, caracal, sloth bears, spotted and sambar deer, nilgai and Indian gazelle, golden jackal, striped hyena, pangolin, honey badger and more.</t>
+  </si>
+  <si>
+    <t>Nagarhole is Karnataka’s leading national park and wildlife getaway. Bounded by the pristine Kabini River and part of the Nilgiri biosphere, Nagarhole was formerly the hunting grounds of the Maharajah of Mysore and was declared a tiger reserve in 1999. This region is home to the largest concentration of herbivores in Asia, and the largest congregation of Asiatic elephants in the world. Tigers, leopards, sloth bears and dhole (wild dogs) also roam these enchanting forests. A year-round temperate climate and incredible wildlife viewing opportunities make Nagarhole a true nature lover’s paradise.</t>
+  </si>
+  <si>
+    <t>Located in the northeast state of Assam, Kaziranga is one of the finest wildlife refuges in the world. Home to the world’s largest population of one-horned rhinos, the park is an undisturbed natural area of wet grasslands, swamps, and pools in the Brahmaputra Valley floodplain. On the UNESCO Natural Heritage list for India, Kaziranga is a great conservation success story, having saved the one-horned rhino from the brink of extinction. In 1903, there were only 12 left in the region; now there are about 1,800.  The park also harbors several other endangered species, such as Bengal tigers, Asian elephants, sloth bears, Gangetic dolphin, and many migratory birds. It’s the only park in India where elephant-back safaris are still deemed acceptable, as it’s the only way to view wildlife in the wet grasslands.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,16 +1603,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,18 +1701,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,146 +2037,2120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E16" s="7">
+        <v>417.34</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E17" s="7">
+        <v>220</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1968</v>
+      </c>
+      <c r="E18" s="7">
+        <v>446</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1974</v>
+      </c>
+      <c r="E19" s="7">
+        <v>874.2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E20" s="7">
+        <v>104.3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1135</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1988</v>
+      </c>
+      <c r="E22" s="7">
+        <v>145</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2007</v>
+      </c>
+      <c r="E23" s="7">
+        <v>31.63</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1976</v>
+      </c>
+      <c r="E24" s="7">
+        <v>34.08</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E25" s="7">
+        <v>760</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E26" s="7">
+        <v>426.23</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2004</v>
+      </c>
+      <c r="E27" s="7">
+        <v>317.67</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5.08</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E29" s="7">
+        <v>141</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3162</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E31" s="7">
+        <v>340</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1977</v>
+      </c>
+      <c r="E32" s="7">
+        <v>490.29</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1978</v>
+      </c>
+      <c r="E33" s="7">
+        <v>97</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E34" s="7">
+        <v>110</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2390</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1965</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1412</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E37" s="7">
+        <v>79.45</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1990</v>
+      </c>
+      <c r="E38" s="7">
+        <v>472.08</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1984</v>
+      </c>
+      <c r="E39" s="7">
+        <v>754.4</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E40" s="7">
+        <v>361.28</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1976</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2.82</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E42" s="7">
+        <v>6.23</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1440.71</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E44" s="7">
+        <v>4400</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E45" s="7">
+        <v>104</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E46" s="7">
+        <v>117.1</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1258.3699999999999</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2012</v>
+      </c>
+      <c r="E48" s="7">
+        <v>216</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1936</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1318.5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E50" s="7">
+        <v>100.88</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1955</v>
+      </c>
+      <c r="E51" s="7">
+        <v>940</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E52" s="7">
+        <v>200</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1974</v>
+      </c>
+      <c r="E54" s="7">
+        <v>858.98</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1977</v>
+      </c>
+      <c r="E55" s="7">
+        <v>40</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E56" s="7">
+        <v>28.73</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1977</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1784</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E58" s="7">
+        <v>710</v>
+      </c>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E59" s="7">
+        <v>400</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E60" s="7">
+        <v>600.32000000000005</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1959</v>
+      </c>
+      <c r="E61" s="7">
+        <v>375.22</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E62" s="7">
+        <v>281.5</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E63" s="7">
+        <v>14.59</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1990</v>
+      </c>
+      <c r="E64" s="7">
+        <v>950</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E66" s="7">
+        <v>162.88999999999999</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E67" s="7">
+        <v>12.82</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E68" s="7">
+        <v>44</v>
+      </c>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1978</v>
+      </c>
+      <c r="E69" s="7">
+        <v>107</v>
+      </c>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E70" s="7">
+        <v>483</v>
+      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1960</v>
+      </c>
+      <c r="E71" s="7">
+        <v>288.83999999999997</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E72" s="7">
+        <v>46.62</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E73" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1940</v>
+      </c>
+      <c r="E74" s="7">
+        <v>321.55</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="6">
+        <v>2006</v>
+      </c>
+      <c r="E75" s="7">
+        <v>200.54</v>
+      </c>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E76" s="7">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1991</v>
+      </c>
+      <c r="E77" s="7">
+        <v>100</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1988</v>
+      </c>
+      <c r="E78" s="7">
+        <v>643.39</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1974</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1985.24</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1978</v>
+      </c>
+      <c r="E80" s="7">
+        <v>137.07</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E81" s="7">
+        <v>630.33000000000004</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1975</v>
+      </c>
+      <c r="E82" s="7">
+        <v>133.88</v>
+      </c>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E83" s="7">
+        <v>88</v>
+      </c>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E84" s="7">
+        <v>47.48</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1979</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1993</v>
+      </c>
+      <c r="E86" s="7">
+        <v>202.02</v>
+      </c>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E87" s="7">
+        <v>78.81</v>
+      </c>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E89" s="7">
+        <v>542.66999999999996</v>
+      </c>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="6">
+        <v>2008</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1012.85</v>
+      </c>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1977</v>
+      </c>
+      <c r="E91" s="7">
+        <v>758</v>
+      </c>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E92" s="7">
+        <v>305</v>
+      </c>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E93" s="7">
+        <v>50</v>
+      </c>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E94" s="7">
+        <v>807.36</v>
+      </c>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="2:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E95" s="7">
+        <v>820</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1996</v>
+      </c>
+      <c r="E96" s="7">
+        <v>256.14</v>
+      </c>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E97" s="7">
+        <v>392</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1979</v>
+      </c>
+      <c r="E98" s="7">
+        <v>32.54</v>
+      </c>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E99" s="7">
+        <v>9.07</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E100" s="7">
+        <v>466.7</v>
+      </c>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="2:6" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1969</v>
+      </c>
+      <c r="E101" s="7">
+        <v>104</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1955</v>
+      </c>
+      <c r="E102" s="7">
+        <v>866</v>
+      </c>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E103" s="7">
+        <v>524</v>
+      </c>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E104" s="7">
+        <v>237</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E105" s="7">
+        <v>27.88</v>
+      </c>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E106" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E107" s="7">
+        <v>2750</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E108" s="7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E110" s="7">
+        <v>353</v>
+      </c>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1984</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1330.12</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1955</v>
+      </c>
+      <c r="E113" s="7">
+        <v>625</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E114" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1976</v>
+      </c>
+      <c r="E115" s="7">
+        <v>898.45</v>
+      </c>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1979</v>
+      </c>
+      <c r="E116" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E117" s="7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>10</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" tooltip="Anamudi Shola National Park" display="https://en.wikipedia.org/wiki/Anamudi_Shola_National_Park"/>
+    <hyperlink ref="C15" r:id="rId2" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="B16" r:id="rId3" tooltip="Anshi National Park" display="https://en.wikipedia.org/wiki/Anshi_National_Park"/>
+    <hyperlink ref="C16" r:id="rId4" tooltip="Karnataka" display="https://en.wikipedia.org/wiki/Karnataka"/>
+    <hyperlink ref="B17" r:id="rId5" tooltip="Balphakram National Park" display="https://en.wikipedia.org/wiki/Balphakram_National_Park"/>
+    <hyperlink ref="C17" r:id="rId6" tooltip="Meghalaya" display="https://en.wikipedia.org/wiki/Meghalaya"/>
+    <hyperlink ref="B18" r:id="rId7" tooltip="Bandhavgarh National Park" display="https://en.wikipedia.org/wiki/Bandhavgarh_National_Park"/>
+    <hyperlink ref="C18" r:id="rId8" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B19" r:id="rId9" tooltip="Bandipur National Park" display="https://en.wikipedia.org/wiki/Bandipur_National_Park"/>
+    <hyperlink ref="C19" r:id="rId10" tooltip="Karnataka" display="https://en.wikipedia.org/wiki/Karnataka"/>
+    <hyperlink ref="B20" r:id="rId11" tooltip="Bannerghatta National Park" display="https://en.wikipedia.org/wiki/Bannerghatta_National_Park"/>
+    <hyperlink ref="C20" r:id="rId12" tooltip="Karnataka" display="https://en.wikipedia.org/wiki/Karnataka"/>
+    <hyperlink ref="B21" r:id="rId13" tooltip="Betla National Park" display="https://en.wikipedia.org/wiki/Betla_National_Park"/>
+    <hyperlink ref="C21" r:id="rId14" tooltip="Jharkhand" display="https://en.wikipedia.org/wiki/Jharkhand"/>
+    <hyperlink ref="B22" r:id="rId15" tooltip="Bhitarkanika National Park" display="https://en.wikipedia.org/wiki/Bhitarkanika_National_Park"/>
+    <hyperlink ref="C22" r:id="rId16" tooltip="Odisha" display="https://en.wikipedia.org/wiki/Odisha"/>
+    <hyperlink ref="B23" r:id="rId17" tooltip="Rajbari National Park" display="https://en.wikipedia.org/wiki/Rajbari_National_Park"/>
+    <hyperlink ref="C23" r:id="rId18" tooltip="Tripura" display="https://en.wikipedia.org/wiki/Tripura"/>
+    <hyperlink ref="B24" r:id="rId19" tooltip="Blackbuck National Park, Velavadar" display="https://en.wikipedia.org/wiki/Blackbuck_National_Park,_Velavadar"/>
+    <hyperlink ref="C24" r:id="rId20" tooltip="Gujarat" display="https://en.wikipedia.org/wiki/Gujarat"/>
+    <hyperlink ref="F24" r:id="rId21" tooltip="Cheetahs" display="https://en.wikipedia.org/wiki/Cheetahs"/>
+    <hyperlink ref="B25" r:id="rId22" tooltip="Buxa Tiger Reserve" display="https://en.wikipedia.org/wiki/Buxa_Tiger_Reserve"/>
+    <hyperlink ref="C25" r:id="rId23" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="B26" r:id="rId24" tooltip="Campbell Bay National Park" display="https://en.wikipedia.org/wiki/Campbell_Bay_National_Park"/>
+    <hyperlink ref="C26" r:id="rId25" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B27" r:id="rId26" tooltip="Chandoli National Park" display="https://en.wikipedia.org/wiki/Chandoli_National_Park"/>
+    <hyperlink ref="C27" r:id="rId27" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="B28" r:id="rId28" tooltip="Clouded Leopard National Park" display="https://en.wikipedia.org/wiki/Clouded_Leopard_National_Park"/>
+    <hyperlink ref="C28" r:id="rId29" tooltip="Tripura" display="https://en.wikipedia.org/wiki/Tripura"/>
+    <hyperlink ref="B29" r:id="rId30" tooltip="Dachigam National Park" display="https://en.wikipedia.org/wiki/Dachigam_National_Park"/>
+    <hyperlink ref="C29" r:id="rId31" tooltip="Jammu and Kashmir" display="https://en.wikipedia.org/wiki/Jammu_and_Kashmir"/>
+    <hyperlink ref="B30" r:id="rId32" tooltip="Desert National Park" display="https://en.wikipedia.org/wiki/Desert_National_Park"/>
+    <hyperlink ref="C30" r:id="rId33" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="F30" r:id="rId34" tooltip="Great Indian bustard" display="https://en.wikipedia.org/wiki/Great_Indian_bustard"/>
+    <hyperlink ref="B31" r:id="rId35" tooltip="Dibru-Saikhowa National Park" display="https://en.wikipedia.org/wiki/Dibru-Saikhowa_National_Park"/>
+    <hyperlink ref="C31" r:id="rId36" tooltip="Assam" display="https://en.wikipedia.org/wiki/Assam"/>
+    <hyperlink ref="F31" r:id="rId37" tooltip="Feral horse" display="https://en.wikipedia.org/wiki/Feral_horse"/>
+    <hyperlink ref="B32" r:id="rId38" tooltip="Dudhwa National Park" display="https://en.wikipedia.org/wiki/Dudhwa_National_Park"/>
+    <hyperlink ref="C32" r:id="rId39" tooltip="Uttar Pradesh" display="https://en.wikipedia.org/wiki/Uttar_Pradesh"/>
+    <hyperlink ref="B33" r:id="rId40" tooltip="Eravikulam National Park" display="https://en.wikipedia.org/wiki/Eravikulam_National_Park"/>
+    <hyperlink ref="C33" r:id="rId41" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="B34" r:id="rId42" tooltip="Galathea National Park" display="https://en.wikipedia.org/wiki/Galathea_National_Park"/>
+    <hyperlink ref="C34" r:id="rId43" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B35" r:id="rId44" tooltip="Gangotri National Park" display="https://en.wikipedia.org/wiki/Gangotri_National_Park"/>
+    <hyperlink ref="C35" r:id="rId45" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B36" r:id="rId46" tooltip="Gir Forest National Park" display="https://en.wikipedia.org/wiki/Gir_Forest_National_Park"/>
+    <hyperlink ref="C36" r:id="rId47" tooltip="Gujarat" display="https://en.wikipedia.org/wiki/Gujarat"/>
+    <hyperlink ref="F36" r:id="rId48" tooltip="Asiatic lion" display="https://en.wikipedia.org/wiki/Asiatic_lion"/>
+    <hyperlink ref="B37" r:id="rId49" tooltip="Gorumara National Park" display="https://en.wikipedia.org/wiki/Gorumara_National_Park"/>
+    <hyperlink ref="C37" r:id="rId50" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="B38" r:id="rId51" tooltip="Govind Pashu Vihar Wildlife Sanctuary" display="https://en.wikipedia.org/wiki/Govind_Pashu_Vihar_Wildlife_Sanctuary"/>
+    <hyperlink ref="C38" r:id="rId52" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B39" r:id="rId53" tooltip="Great Himalayan National Park" display="https://en.wikipedia.org/wiki/Great_Himalayan_National_Park"/>
+    <hyperlink ref="C39" r:id="rId54" tooltip="Himachal Pradesh" display="https://en.wikipedia.org/wiki/Himachal_Pradesh"/>
+    <hyperlink ref="B40" r:id="rId55" tooltip="Gugamal National Park" display="https://en.wikipedia.org/wiki/Gugamal_National_Park"/>
+    <hyperlink ref="C40" r:id="rId56" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="B41" r:id="rId57" tooltip="Guindy National Park" display="https://en.wikipedia.org/wiki/Guindy_National_Park"/>
+    <hyperlink ref="C41" r:id="rId58" tooltip="Tamil Nadu" display="https://en.wikipedia.org/wiki/Tamil_Nadu"/>
+    <hyperlink ref="B42" r:id="rId59" tooltip="Gulf of Mannar Marine National Park" display="https://en.wikipedia.org/wiki/Gulf_of_Mannar_Marine_National_Park"/>
+    <hyperlink ref="C42" r:id="rId60" tooltip="Tamil Nadu" display="https://en.wikipedia.org/wiki/Tamil_Nadu"/>
+    <hyperlink ref="B43" r:id="rId61" tooltip="Sanjay National Park" display="https://en.wikipedia.org/wiki/Sanjay_National_Park"/>
+    <hyperlink ref="C43" r:id="rId62" tooltip="Chhattisgarh" display="https://en.wikipedia.org/wiki/Chhattisgarh"/>
+    <hyperlink ref="B44" r:id="rId63" tooltip="Hemis National Park" display="https://en.wikipedia.org/wiki/Hemis_National_Park"/>
+    <hyperlink ref="C44" r:id="rId64" tooltip="Jammu and Kashmir" display="https://en.wikipedia.org/wiki/Jammu_and_Kashmir"/>
+    <hyperlink ref="B45" r:id="rId65" tooltip="Inderkilla National Park" display="https://en.wikipedia.org/wiki/Inderkilla_National_Park"/>
+    <hyperlink ref="C45" r:id="rId66" tooltip="Himachal Pradesh" display="https://en.wikipedia.org/wiki/Himachal_Pradesh"/>
+    <hyperlink ref="B46" r:id="rId67" tooltip="Indira Gandhi Wildlife Sanctuary and National Park" display="https://en.wikipedia.org/wiki/Indira_Gandhi_Wildlife_Sanctuary_and_National_Park"/>
+    <hyperlink ref="C46" r:id="rId68" tooltip="Tamil Nadu" display="https://en.wikipedia.org/wiki/Tamil_Nadu"/>
+    <hyperlink ref="B47" r:id="rId69" tooltip="Indravati National Park" display="https://en.wikipedia.org/wiki/Indravati_National_Park"/>
+    <hyperlink ref="C47" r:id="rId70" tooltip="Chhattisgarh" display="https://en.wikipedia.org/wiki/Chhattisgarh"/>
+    <hyperlink ref="B48" r:id="rId71" tooltip="Jaldapara National Park" display="https://en.wikipedia.org/wiki/Jaldapara_National_Park"/>
+    <hyperlink ref="C48" r:id="rId72" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="F48" r:id="rId73" tooltip="Indian rhinoceros" display="https://en.wikipedia.org/wiki/Indian_rhinoceros"/>
+    <hyperlink ref="B49" r:id="rId74" tooltip="Jim Corbett National Park" display="https://en.wikipedia.org/wiki/Jim_Corbett_National_Park"/>
+    <hyperlink ref="C49" r:id="rId75" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B50" r:id="rId76" tooltip="Kalesar National Park" display="https://en.wikipedia.org/wiki/Kalesar_National_Park"/>
+    <hyperlink ref="C50" r:id="rId77" tooltip="Haryana" display="https://en.wikipedia.org/wiki/Haryana"/>
+    <hyperlink ref="B51" r:id="rId78" tooltip="Kanha National Park" display="https://en.wikipedia.org/wiki/Kanha_National_Park"/>
+    <hyperlink ref="C51" r:id="rId79" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B52" r:id="rId80" tooltip="Kanger Ghati National Park" display="https://en.wikipedia.org/wiki/Kanger_Ghati_National_Park"/>
+    <hyperlink ref="C52" r:id="rId81" tooltip="Chhattisgarh" display="https://en.wikipedia.org/wiki/Chhattisgarh"/>
+    <hyperlink ref="B53" r:id="rId82" tooltip="Kasu Brahmananda Reddy National Park" display="https://en.wikipedia.org/wiki/Kasu_Brahmananda_Reddy_National_Park"/>
+    <hyperlink ref="C53" r:id="rId83" tooltip="Telangana" display="https://en.wikipedia.org/wiki/Telangana"/>
+    <hyperlink ref="B54" r:id="rId84" tooltip="Kaziranga National Park" display="https://en.wikipedia.org/wiki/Kaziranga_National_Park"/>
+    <hyperlink ref="C54" r:id="rId85" tooltip="Assam" display="https://en.wikipedia.org/wiki/Assam"/>
+    <hyperlink ref="B55" r:id="rId86" tooltip="Keibul Lamjao National Park" display="https://en.wikipedia.org/wiki/Keibul_Lamjao_National_Park"/>
+    <hyperlink ref="C55" r:id="rId87" tooltip="Manipur" display="https://en.wikipedia.org/wiki/Manipur"/>
+    <hyperlink ref="B56" r:id="rId88" tooltip="Keoladeo National Park" display="https://en.wikipedia.org/wiki/Keoladeo_National_Park"/>
+    <hyperlink ref="C56" r:id="rId89" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="B57" r:id="rId90" tooltip="Khangchendzonga National Park" display="https://en.wikipedia.org/wiki/Khangchendzonga_National_Park"/>
+    <hyperlink ref="C57" r:id="rId91" tooltip="Sikkim" display="https://en.wikipedia.org/wiki/Sikkim"/>
+    <hyperlink ref="B58" r:id="rId92" tooltip="Khirganga National Park" display="https://en.wikipedia.org/wiki/Khirganga_National_Park"/>
+    <hyperlink ref="C58" r:id="rId93" tooltip="Himachal Pradesh" display="https://en.wikipedia.org/wiki/Himachal_Pradesh"/>
+    <hyperlink ref="B59" r:id="rId94" tooltip="Kishtwar National Park" display="https://en.wikipedia.org/wiki/Kishtwar_National_Park"/>
+    <hyperlink ref="C59" r:id="rId95" tooltip="Jammu and Kashmir" display="https://en.wikipedia.org/wiki/Jammu_and_Kashmir"/>
+    <hyperlink ref="B60" r:id="rId96" tooltip="Kudremukh National Park" display="https://en.wikipedia.org/wiki/Kudremukh_National_Park"/>
+    <hyperlink ref="C60" r:id="rId97" tooltip="Karnataka" display="https://en.wikipedia.org/wiki/Karnataka"/>
+    <hyperlink ref="B61" r:id="rId98" tooltip="Madhav National Park" display="https://en.wikipedia.org/wiki/Madhav_National_Park"/>
+    <hyperlink ref="C61" r:id="rId99" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B62" r:id="rId100" tooltip="Mahatma Gandhi Marine National Park" display="https://en.wikipedia.org/wiki/Mahatma_Gandhi_Marine_National_Park"/>
+    <hyperlink ref="C62" r:id="rId101" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B63" r:id="rId102" tooltip="Mahavir Harina Vanasthali National Park" display="https://en.wikipedia.org/wiki/Mahavir_Harina_Vanasthali_National_Park"/>
+    <hyperlink ref="C63" r:id="rId103" tooltip="Telangana" display="https://en.wikipedia.org/wiki/Telangana"/>
+    <hyperlink ref="B64" r:id="rId104" tooltip="Manas National Park" display="https://en.wikipedia.org/wiki/Manas_National_Park"/>
+    <hyperlink ref="C64" r:id="rId105" tooltip="Assam" display="https://en.wikipedia.org/wiki/Assam"/>
+    <hyperlink ref="B65" r:id="rId106" tooltip="Mandla Plant Fossils National Park" display="https://en.wikipedia.org/wiki/Mandla_Plant_Fossils_National_Park"/>
+    <hyperlink ref="C65" r:id="rId107" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B66" r:id="rId108" tooltip="Marine National Park, Gulf of Kutch" display="https://en.wikipedia.org/wiki/Marine_National_Park,_Gulf_of_Kutch"/>
+    <hyperlink ref="C66" r:id="rId109" tooltip="Gujarat" display="https://en.wikipedia.org/wiki/Gujarat"/>
+    <hyperlink ref="B67" r:id="rId110" tooltip="Mathikettan Shola National Park" display="https://en.wikipedia.org/wiki/Mathikettan_Shola_National_Park"/>
+    <hyperlink ref="C67" r:id="rId111" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="B68" r:id="rId112" tooltip="Middle Button Island National Park" display="https://en.wikipedia.org/wiki/Middle_Button_Island_National_Park"/>
+    <hyperlink ref="C68" r:id="rId113" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B69" r:id="rId114" tooltip="Mollem National Park" display="https://en.wikipedia.org/wiki/Mollem_National_Park"/>
+    <hyperlink ref="C69" r:id="rId115" tooltip="Goa" display="https://en.wikipedia.org/wiki/Goa"/>
+    <hyperlink ref="B70" r:id="rId116" tooltip="Mouling National Park" display="https://en.wikipedia.org/wiki/Mouling_National_Park"/>
+    <hyperlink ref="C70" r:id="rId117" tooltip="Arunachal Pradesh" display="https://en.wikipedia.org/wiki/Arunachal_Pradesh"/>
+    <hyperlink ref="B71" r:id="rId118" tooltip="Mount Abu Wildlife Sanctuary" display="https://en.wikipedia.org/wiki/Mount_Abu_Wildlife_Sanctuary"/>
+    <hyperlink ref="C71" r:id="rId119" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="B72" r:id="rId120" tooltip="Mount Harriet National Park" display="https://en.wikipedia.org/wiki/Mount_Harriet_National_Park"/>
+    <hyperlink ref="C72" r:id="rId121" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="F72" r:id="rId122" tooltip="BirdLife International" display="https://en.wikipedia.org/wiki/BirdLife_International"/>
+    <hyperlink ref="B73" r:id="rId123" tooltip="Mrugavani National Park" display="https://en.wikipedia.org/wiki/Mrugavani_National_Park"/>
+    <hyperlink ref="C73" r:id="rId124" tooltip="Telangana" display="https://en.wikipedia.org/wiki/Telangana"/>
+    <hyperlink ref="B74" r:id="rId125" tooltip="Mudumalai National Park" display="https://en.wikipedia.org/wiki/Mudumalai_National_Park"/>
+    <hyperlink ref="C74" r:id="rId126" tooltip="Tamil Nadu" display="https://en.wikipedia.org/wiki/Tamil_Nadu"/>
+    <hyperlink ref="B75" r:id="rId127" tooltip="Darrah National Park" display="https://en.wikipedia.org/wiki/Darrah_National_Park"/>
+    <hyperlink ref="C75" r:id="rId128" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="B76" r:id="rId129" tooltip="Mukurthi National Park" display="https://en.wikipedia.org/wiki/Mukurthi_National_Park"/>
+    <hyperlink ref="C76" r:id="rId130" tooltip="Tamil Nadu" display="https://en.wikipedia.org/wiki/Tamil_Nadu"/>
+    <hyperlink ref="F76" r:id="rId131" tooltip="Nilgiri tahr" display="https://en.wikipedia.org/wiki/Nilgiri_tahr"/>
+    <hyperlink ref="B77" r:id="rId132" tooltip="Murlen National Park" display="https://en.wikipedia.org/wiki/Murlen_National_Park"/>
+    <hyperlink ref="C77" r:id="rId133" tooltip="Mizoram" display="https://en.wikipedia.org/wiki/Mizoram"/>
+    <hyperlink ref="B78" r:id="rId134" tooltip="Nagarhole National Park" display="https://en.wikipedia.org/wiki/Nagarhole_National_Park"/>
+    <hyperlink ref="C78" r:id="rId135" tooltip="Karnataka" display="https://en.wikipedia.org/wiki/Karnataka"/>
+    <hyperlink ref="B79" r:id="rId136" tooltip="Namdapha National Park" display="https://en.wikipedia.org/wiki/Namdapha_National_Park"/>
+    <hyperlink ref="C79" r:id="rId137" tooltip="Arunachal Pradesh" display="https://en.wikipedia.org/wiki/Arunachal_Pradesh"/>
+    <hyperlink ref="B80" r:id="rId138" tooltip="Nameri National Park" display="https://en.wikipedia.org/wiki/Nameri_National_Park"/>
+    <hyperlink ref="C80" r:id="rId139" tooltip="Assam" display="https://en.wikipedia.org/wiki/Assam"/>
+    <hyperlink ref="B81" r:id="rId140" tooltip="Nanda Devi National Park" display="https://en.wikipedia.org/wiki/Nanda_Devi_National_Park"/>
+    <hyperlink ref="C81" r:id="rId141" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B82" r:id="rId142" tooltip="Navegaon National Park" display="https://en.wikipedia.org/wiki/Navegaon_National_Park"/>
+    <hyperlink ref="C82" r:id="rId143" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="B83" r:id="rId144" tooltip="Neora Valley National Park" display="https://en.wikipedia.org/wiki/Neora_Valley_National_Park"/>
+    <hyperlink ref="C83" r:id="rId145" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="B84" r:id="rId146" tooltip="Nokrek National Park" display="https://en.wikipedia.org/wiki/Nokrek_National_Park"/>
+    <hyperlink ref="C84" r:id="rId147" tooltip="Meghalaya" display="https://en.wikipedia.org/wiki/Meghalaya"/>
+    <hyperlink ref="B85" r:id="rId148" tooltip="North Button Island National Park" display="https://en.wikipedia.org/wiki/North_Button_Island_National_Park"/>
+    <hyperlink ref="C85" r:id="rId149" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B86" r:id="rId150" tooltip="Ntangki National Park" display="https://en.wikipedia.org/wiki/Ntangki_National_Park"/>
+    <hyperlink ref="C86" r:id="rId151" tooltip="Nagaland" display="https://en.wikipedia.org/wiki/Nagaland"/>
+    <hyperlink ref="B87" r:id="rId152" tooltip="Orang National Park" display="https://en.wikipedia.org/wiki/Orang_National_Park"/>
+    <hyperlink ref="C87" r:id="rId153" tooltip="Assam" display="https://en.wikipedia.org/wiki/Assam"/>
+    <hyperlink ref="B88" r:id="rId154" tooltip="Pambadum Shola National Park" display="https://en.wikipedia.org/wiki/Pambadum_Shola_National_Park"/>
+    <hyperlink ref="C88" r:id="rId155" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="B89" r:id="rId156" tooltip="Panna National Park" display="https://en.wikipedia.org/wiki/Panna_National_Park"/>
+    <hyperlink ref="C89" r:id="rId157" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B90" r:id="rId158" tooltip="Papikonda National Park" display="https://en.wikipedia.org/wiki/Papikonda_National_Park"/>
+    <hyperlink ref="C90" r:id="rId159" tooltip="Andhra Pradesh" display="https://en.wikipedia.org/wiki/Andhra_Pradesh"/>
+    <hyperlink ref="C91" r:id="rId160" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B92" r:id="rId161" tooltip="Periyar National Park" display="https://en.wikipedia.org/wiki/Periyar_National_Park"/>
+    <hyperlink ref="C92" r:id="rId162" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="B93" r:id="rId163" tooltip="Phawngpui National Park" display="https://en.wikipedia.org/wiki/Phawngpui_National_Park"/>
+    <hyperlink ref="C93" r:id="rId164" tooltip="Mizoram" display="https://en.wikipedia.org/wiki/Mizoram"/>
+    <hyperlink ref="B94" r:id="rId165" tooltip="Pin Valley National Park" display="https://en.wikipedia.org/wiki/Pin_Valley_National_Park"/>
+    <hyperlink ref="C94" r:id="rId166" tooltip="Himachal Pradesh" display="https://en.wikipedia.org/wiki/Himachal_Pradesh"/>
+    <hyperlink ref="B95" r:id="rId167" tooltip="Rajaji National Park" display="https://en.wikipedia.org/wiki/Rajaji_National_Park"/>
+    <hyperlink ref="C95" r:id="rId168" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B96" r:id="rId169" tooltip="Rani Jhansi Marine National Park" display="https://en.wikipedia.org/wiki/Rani_Jhansi_Marine_National_Park"/>
+    <hyperlink ref="C96" r:id="rId170" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B97" r:id="rId171" tooltip="Ranthambore National Park" display="https://en.wikipedia.org/wiki/Ranthambore_National_Park"/>
+    <hyperlink ref="C97" r:id="rId172" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="B98" r:id="rId173" tooltip="Saddle Peak National Park" display="https://en.wikipedia.org/wiki/Saddle_Peak_National_Park"/>
+    <hyperlink ref="C98" r:id="rId174" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B99" r:id="rId175" tooltip="Salim Ali National Park" display="https://en.wikipedia.org/wiki/Salim_Ali_National_Park"/>
+    <hyperlink ref="C99" r:id="rId176" tooltip="Jammu and Kashmir" display="https://en.wikipedia.org/wiki/Jammu_and_Kashmir"/>
+    <hyperlink ref="C100" r:id="rId177" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B101" r:id="rId178" tooltip="Sanjay Gandhi National Park" display="https://en.wikipedia.org/wiki/Sanjay_Gandhi_National_Park"/>
+    <hyperlink ref="C101" r:id="rId179" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="B102" r:id="rId180" tooltip="Sariska Tiger Reserve" display="https://en.wikipedia.org/wiki/Sariska_Tiger_Reserve"/>
+    <hyperlink ref="C102" r:id="rId181" tooltip="Rajasthan" display="https://en.wikipedia.org/wiki/Rajasthan"/>
+    <hyperlink ref="B103" r:id="rId182" tooltip="Satpura National Park" display="https://en.wikipedia.org/wiki/Satpura_National_Park"/>
+    <hyperlink ref="C103" r:id="rId183" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+    <hyperlink ref="B104" r:id="rId184" tooltip="Silent Valley National Park" display="https://en.wikipedia.org/wiki/Silent_Valley_National_Park"/>
+    <hyperlink ref="C104" r:id="rId185" tooltip="Kerala" display="https://en.wikipedia.org/wiki/Kerala"/>
+    <hyperlink ref="F104" r:id="rId186" tooltip="Cicada" display="https://en.wikipedia.org/wiki/Cicada"/>
+    <hyperlink ref="B105" r:id="rId187" tooltip="Simbalbara National Park" display="https://en.wikipedia.org/wiki/Simbalbara_National_Park"/>
+    <hyperlink ref="C105" r:id="rId188" tooltip="Himachal Pradesh" display="https://en.wikipedia.org/wiki/Himachal_Pradesh"/>
+    <hyperlink ref="B106" r:id="rId189" tooltip="Sirohi National Park" display="https://en.wikipedia.org/wiki/Sirohi_National_Park"/>
+    <hyperlink ref="C106" r:id="rId190" tooltip="Manipur" display="https://en.wikipedia.org/wiki/Manipur"/>
+    <hyperlink ref="B107" r:id="rId191" tooltip="Simlipal National Park" display="https://en.wikipedia.org/wiki/Simlipal_National_Park"/>
+    <hyperlink ref="C107" r:id="rId192" tooltip="Odisha" display="https://en.wikipedia.org/wiki/Odisha"/>
+    <hyperlink ref="B108" r:id="rId193" tooltip="Singalila National Park" display="https://en.wikipedia.org/wiki/Singalila_National_Park"/>
+    <hyperlink ref="C108" r:id="rId194" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="B109" r:id="rId195" tooltip="South Button Island National Park" display="https://en.wikipedia.org/wiki/South_Button_Island_National_Park"/>
+    <hyperlink ref="C109" r:id="rId196" tooltip="Andaman and Nicobar Islands" display="https://en.wikipedia.org/wiki/Andaman_and_Nicobar_Islands"/>
+    <hyperlink ref="B110" r:id="rId197" tooltip="Sri Venkateswara National Park" display="https://en.wikipedia.org/wiki/Sri_Venkateswara_National_Park"/>
+    <hyperlink ref="C110" r:id="rId198" tooltip="Andhra Pradesh" display="https://en.wikipedia.org/wiki/Andhra_Pradesh"/>
+    <hyperlink ref="B111" r:id="rId199" tooltip="Sultanpur National Park" display="https://en.wikipedia.org/wiki/Sultanpur_National_Park"/>
+    <hyperlink ref="C111" r:id="rId200" tooltip="Haryana" display="https://en.wikipedia.org/wiki/Haryana"/>
+    <hyperlink ref="B112" r:id="rId201" tooltip="Sundarbans National Park" display="https://en.wikipedia.org/wiki/Sundarbans_National_Park"/>
+    <hyperlink ref="C112" r:id="rId202" tooltip="West Bengal" display="https://en.wikipedia.org/wiki/West_Bengal"/>
+    <hyperlink ref="B113" r:id="rId203" tooltip="Tadoba National Park" display="https://en.wikipedia.org/wiki/Tadoba_National_Park"/>
+    <hyperlink ref="C113" r:id="rId204" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="F113" r:id="rId205" tooltip="Tigers" display="https://en.wikipedia.org/wiki/Tigers"/>
+    <hyperlink ref="B114" r:id="rId206" tooltip="Valley of Flowers National Park" display="https://en.wikipedia.org/wiki/Valley_of_Flowers_National_Park"/>
+    <hyperlink ref="C114" r:id="rId207" tooltip="Uttarakhand" display="https://en.wikipedia.org/wiki/Uttarakhand"/>
+    <hyperlink ref="B115" r:id="rId208" tooltip="Valmiki National Park" display="https://en.wikipedia.org/wiki/Valmiki_National_Park"/>
+    <hyperlink ref="C115" r:id="rId209" tooltip="Bihar" display="https://en.wikipedia.org/wiki/Bihar"/>
+    <hyperlink ref="B116" r:id="rId210" tooltip="Vansda National Park" display="https://en.wikipedia.org/wiki/Vansda_National_Park"/>
+    <hyperlink ref="C116" r:id="rId211" tooltip="Gujarat" display="https://en.wikipedia.org/wiki/Gujarat"/>
+    <hyperlink ref="B117" r:id="rId212" tooltip="Van Vihar National Park" display="https://en.wikipedia.org/wiki/Van_Vihar_National_Park"/>
+    <hyperlink ref="C117" r:id="rId213" tooltip="Madhya Pradesh" display="https://en.wikipedia.org/wiki/Madhya_Pradesh"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId214"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7B0E7-914C-40FA-93F6-A60437E3A335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -641,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -663,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -674,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -685,7 +4205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -702,22 +4222,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632271AD-888A-470A-8754-BA595A36AEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -731,7 +4251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -745,7 +4265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,7 +4279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -773,7 +4293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -787,7 +4307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -801,7 +4321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -815,7 +4335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -829,7 +4349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -843,7 +4363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -857,10 +4377,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
